--- a/Productos.xlsx
+++ b/Productos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudianteccr-my.sharepoint.com/personal/alonso_jimenez_estudiantec_cr/Documents/Documentos/GitHub/AyudaMaubros/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{762BC336-C8D8-4150-94F9-4505B2CE4157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9043525-B524-41CF-8851-48008BCDE382}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{762BC336-C8D8-4150-94F9-4505B2CE4157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9CD95E4-7488-4F91-ACD3-AAE1D46EA360}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E322F38B-4777-4C0F-9B2B-BEFC1D1AE493}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E322F38B-4777-4C0F-9B2B-BEFC1D1AE493}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Productos</t>
   </si>
@@ -55,12 +55,6 @@
     <t>Pesado</t>
   </si>
   <si>
-    <t>Enlatado Hamburguesa</t>
-  </si>
-  <si>
-    <t>Trenzado y enlatado</t>
-  </si>
-  <si>
     <t>Aplastado</t>
   </si>
   <si>
@@ -68,6 +62,9 @@
   </si>
   <si>
     <t>Trenza</t>
+  </si>
+  <si>
+    <t>Enlatado</t>
   </si>
 </sst>
 </file>
@@ -419,15 +416,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2AADFD-24EA-45B9-9743-1EB581853809}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,18 +448,15 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
       </c>
       <c r="B2">
         <v>800</v>
@@ -475,13 +473,13 @@
       <c r="G2">
         <v>2.3749999999999999E-3</v>
       </c>
-      <c r="I2">
+      <c r="H2">
         <v>1.0312999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -495,7 +493,7 @@
       <c r="F3">
         <v>0.31859999999999999</v>
       </c>
-      <c r="H3">
+      <c r="G3">
         <v>0.4758</v>
       </c>
     </row>
